--- a/biology/Zoologie/Asterope_markii/Asterope_markii.xlsx
+++ b/biology/Zoologie/Asterope_markii/Asterope_markii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterope markii est une espèce de papillons de la famille des Nymphalidae, sous-famille des Biblidinae et genre Asterope.
 </t>
@@ -511,53 +523,55 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asterope markii a été décrite par William Chapman Hewitson en 1857 sous le nom initial de Callithea markii[1].
-Synonyme : Asterope hewitsoni[2].
-Sous-espèces
-Asterope markii markii; présent au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterope markii a été décrite par William Chapman Hewitson en 1857 sous le nom initial de Callithea markii.
+Synonyme : Asterope hewitsoni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asterope_markii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asterope_markii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Asterope markii markii; présent au Brésil.
 Asterope markii ackeryi Jenkins, 1987; présent au Brésil.
 Asterope markii boyi (Röber, 1924); présent au Brésil.
 Asterope markii davisii (Butler, 1877); présent au Pérou, en Équateur et au Brésil.
 Asterope markii gallardi Neukirchen, 1996; présent en Guyane.
 Asterope markii hewitsoni (Staudinger, 1886); présent en Colombie, en Équateur
-Asterope markii werneri Neukirchen, 1995; présent au Brésil et en Guyane[1].
-Nom vernaculaire
-Asterope markii se nomme Dotted Glory ou Mark's Asterode en anglais
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Asterope_markii</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asterope_markii</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asterope markii est un papillon d'une envergure d'environ 52 mm, au corps et aux ailes noires[2]. Les ailes antérieures sont centées par une grande flaque orange allant de la base du bord costal à sa moitié puis rejoignant l'angle externe en laissant une bordure noire au bord interne qui s’élargit en allant vers la base. Les ailes postérieures sont noires avec une flaque bleue au centre du bord externe sur 1/3 de l'aile.
-Le revers est gris beige avec aux ailes antérieures la même flaque orange que sur le dessus et aux ailes postérieures quatre lignes de points foncés parallèles à la marge.
-</t>
+Asterope markii werneri Neukirchen, 1995; présent au Brésil et en Guyane.</t>
         </is>
       </c>
     </row>
@@ -582,13 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-les plantes hôtes de sa chenille sont des Paullinia[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterope markii se nomme Dotted Glory ou Mark's Asterode en anglais
 </t>
         </is>
       </c>
@@ -614,15 +633,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterope markii est un papillon d'une envergure d'environ 52 mm, au corps et aux ailes noires. Les ailes antérieures sont centées par une grande flaque orange allant de la base du bord costal à sa moitié puis rejoignant l'angle externe en laissant une bordure noire au bord interne qui s’élargit en allant vers la base. Les ailes postérieures sont noires avec une flaque bleue au centre du bord externe sur 1/3 de l'aile.
+Le revers est gris beige avec aux ailes antérieures la même flaque orange que sur le dessus et aux ailes postérieures quatre lignes de points foncés parallèles à la marge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asterope_markii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asterope_markii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les plantes hôtes de sa chenille sont des Paullinia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Asterope_markii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asterope_markii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asterope markii est présent en Colombie, en Équateur, au Pérou, au Brésil et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterope markii est présent en Colombie, en Équateur, au Pérou, au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asterope_markii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asterope_markii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
